--- a/data/Subdata.xlsx
+++ b/data/Subdata.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\senio\Documents\Programming\Python Scripts\VSCode\AGE\Class\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A38B50C-435C-4A37-966E-10A8C0B098F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968E107F-5644-4768-95E7-EB51E7DB9849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{1679E72E-8A18-944B-B572-A65605D2AF7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="reviews" localSheetId="0">Sheet1!$A$120</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -87,13 +90,97 @@
   </si>
   <si>
     <t>steak, 2x pepperjack cheese, green peppers, red onions, baja chiptole sauce, Toasted</t>
+  </si>
+  <si>
+    <t>#3 The Monster</t>
+  </si>
+  <si>
+    <t>juicy steak, crisp bacon, a double helping of Monterey cheddar, green peppers and red onions piled high and served toasted on Artisan Italian bread and topped off with creamy Peppercorn Ranch</t>
+  </si>
+  <si>
+    <t>#4 Supreme Meats</t>
+  </si>
+  <si>
+    <t>Black Forest ham, Genoa salami, pepperoni, and our NEW capicola on fresh-baked Artisan Italian bread with provolone cheese, lettuce, tomatoes, red onions, and banana peppers</t>
+  </si>
+  <si>
+    <t>Genoa salami, spicy pepperoni, savory Black Forest ham, provolone cheese, crisp lettuce, tomatoes, red onions</t>
+  </si>
+  <si>
+    <t>#23 The Hotshot Italiano</t>
+  </si>
+  <si>
+    <t>#5 Bella Mozza</t>
+  </si>
+  <si>
+    <t>Thin-sliced Black Forest ham, our NEW capicola, and BelGioioso® Fresh Mozzarella on fresh-baked Artisan Italian bread. Topped with spinach, tomatoes, red onions, and banana peppers</t>
+  </si>
+  <si>
+    <t>#6 The Boss</t>
+  </si>
+  <si>
+    <t>uicy meatballs drenched in marinara sauce with slices of pepperoni and BelGioioso® Fresh Mozzarella</t>
+  </si>
+  <si>
+    <t>#8 The Great Garlic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juicy rotisserie-style chicken, crispy bacon, provolone, lettuce, tomatoes, red onions </t>
+  </si>
+  <si>
+    <t>#16 All-Pro Sweet Onion Teriyaki</t>
+  </si>
+  <si>
+    <t>toasted Hearty Multigrain bread, tender grilled chicken strips marinated in our Sweet Onion Teriyaki sauce, American cheese, lettuce, tomatoes, and red onions.</t>
+  </si>
+  <si>
+    <t>#20 Elite Chicken &amp; Bacon Ranch</t>
+  </si>
+  <si>
+    <t>tender rotisserie-style chicken, melted Monterey cheddar cheese, hickory-smoked bacon, lettuce, tomatoes, red onions,</t>
+  </si>
+  <si>
+    <t>#9 The Champ</t>
+  </si>
+  <si>
+    <t>Tender hand-pulled rotisserie-style chicken, a double helping of Monterey Cheddar, green peppers, and red onions</t>
+  </si>
+  <si>
+    <t>juicy rotisserie-style chicken, smashed avocado, double Pepper Jack cheese, lettuce, tomatoes, and red onions</t>
+  </si>
+  <si>
+    <t>#10 All-American Club</t>
+  </si>
+  <si>
+    <t>Oven-roasted turkey, Black Forest ham, crisp bacon, and American cheese with lettuce, tomatoes, red onions, and mayo</t>
+  </si>
+  <si>
+    <t>#19 Pickleball Club</t>
+  </si>
+  <si>
+    <t>#11 Subway Club</t>
+  </si>
+  <si>
+    <t>Oven-roasted turkey, Black Forest ham, USDA Choice Roast Beef, provolone cheese piled on Hearty Multigrain bread and topped with lettuce, tomatoes, red onions, and mayo</t>
+  </si>
+  <si>
+    <t>#12 Turkey Cali Club</t>
+  </si>
+  <si>
+    <t>Oven-roasted turkey, crisp bacon, BelGioioso® Fresh Mozzarella, and smashed Hass avocado. Topped with spinach, tomatoes, red onions, and mayo</t>
+  </si>
+  <si>
+    <t>#18 The Ultimate B.M.T</t>
+  </si>
+  <si>
+    <t>#7 The Mexicali</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,6 +203,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Scandia-bold"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Scandia-regular"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,6 +248,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,18 +568,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1C98EE-A01B-7547-A092-4344E54CDA46}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="29.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -489,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="46.5">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -500,7 +601,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="46.5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -511,7 +612,7 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="46.5">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -522,7 +623,7 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="62">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -533,7 +634,7 @@
         <v>7.89</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="46.5">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -544,7 +645,7 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="46.5">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -555,7 +656,7 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="46.5">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -566,157 +667,248 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="108.5">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="93">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="62">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="93">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="93">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="62">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="46.5">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="93">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="31">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="62">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="62">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="62">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="62">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="93">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="77.5">
+      <c r="A23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Subdata.xlsx
+++ b/data/Subdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\senio\Documents\Programming\Python Scripts\VSCode\AGE\Class\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968E107F-5644-4768-95E7-EB51E7DB9849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D7E526-B513-466B-8DFF-D230D782AD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{1679E72E-8A18-944B-B572-A65605D2AF7D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -53,57 +53,30 @@
     <t>#99 Grand Slam Ham</t>
   </si>
   <si>
-    <t>33% MORE ham, 2x provolone, lettuce, tomatoes, onions, and mayo</t>
-  </si>
-  <si>
     <t>#15 Titan Turkey</t>
   </si>
   <si>
-    <t>33% MORE* turkey, 2x provolone, lettuce, tomatoes, onions, and mayo</t>
-  </si>
-  <si>
     <t>#17 Garlic Roast Beef</t>
   </si>
   <si>
-    <t>roast beef, 2x provolone, lettuce, tomatoes, onions, and Roasted Garlic Aioli</t>
-  </si>
-  <si>
     <t>#30 The Beast</t>
   </si>
   <si>
-    <t>pepperoni, salami, turkey, ham and roast beef, 2x provolone, lettuce, tomatoes, onions, mayo, and MVP Vinaigrette</t>
-  </si>
-  <si>
     <t>#1 The Philly</t>
   </si>
   <si>
-    <t>steak, 2x American Cheese, Green Peppers, Red Onions, Toasted, and Mayo</t>
-  </si>
-  <si>
     <t>#33 Teriyaki Blitz</t>
   </si>
   <si>
-    <t>steak, 2x American Cheese, Green Peppers, Red Onions, Toasted, and Sweet Onion Teriyaki sauce</t>
-  </si>
-  <si>
     <t>#2 The Outlaw</t>
   </si>
   <si>
-    <t>steak, 2x pepperjack cheese, green peppers, red onions, baja chiptole sauce, Toasted</t>
-  </si>
-  <si>
     <t>#3 The Monster</t>
   </si>
   <si>
-    <t>juicy steak, crisp bacon, a double helping of Monterey cheddar, green peppers and red onions piled high and served toasted on Artisan Italian bread and topped off with creamy Peppercorn Ranch</t>
-  </si>
-  <si>
     <t>#4 Supreme Meats</t>
   </si>
   <si>
-    <t>Black Forest ham, Genoa salami, pepperoni, and our NEW capicola on fresh-baked Artisan Italian bread with provolone cheese, lettuce, tomatoes, red onions, and banana peppers</t>
-  </si>
-  <si>
     <t>Genoa salami, spicy pepperoni, savory Black Forest ham, provolone cheese, crisp lettuce, tomatoes, red onions</t>
   </si>
   <si>
@@ -113,42 +86,21 @@
     <t>#5 Bella Mozza</t>
   </si>
   <si>
-    <t>Thin-sliced Black Forest ham, our NEW capicola, and BelGioioso® Fresh Mozzarella on fresh-baked Artisan Italian bread. Topped with spinach, tomatoes, red onions, and banana peppers</t>
-  </si>
-  <si>
     <t>#6 The Boss</t>
   </si>
   <si>
-    <t>uicy meatballs drenched in marinara sauce with slices of pepperoni and BelGioioso® Fresh Mozzarella</t>
-  </si>
-  <si>
     <t>#8 The Great Garlic</t>
   </si>
   <si>
-    <t xml:space="preserve">juicy rotisserie-style chicken, crispy bacon, provolone, lettuce, tomatoes, red onions </t>
-  </si>
-  <si>
     <t>#16 All-Pro Sweet Onion Teriyaki</t>
   </si>
   <si>
-    <t>toasted Hearty Multigrain bread, tender grilled chicken strips marinated in our Sweet Onion Teriyaki sauce, American cheese, lettuce, tomatoes, and red onions.</t>
-  </si>
-  <si>
     <t>#20 Elite Chicken &amp; Bacon Ranch</t>
   </si>
   <si>
-    <t>tender rotisserie-style chicken, melted Monterey cheddar cheese, hickory-smoked bacon, lettuce, tomatoes, red onions,</t>
-  </si>
-  <si>
     <t>#9 The Champ</t>
   </si>
   <si>
-    <t>Tender hand-pulled rotisserie-style chicken, a double helping of Monterey Cheddar, green peppers, and red onions</t>
-  </si>
-  <si>
-    <t>juicy rotisserie-style chicken, smashed avocado, double Pepper Jack cheese, lettuce, tomatoes, and red onions</t>
-  </si>
-  <si>
     <t>#10 All-American Club</t>
   </si>
   <si>
@@ -161,9 +113,6 @@
     <t>#11 Subway Club</t>
   </si>
   <si>
-    <t>Oven-roasted turkey, Black Forest ham, USDA Choice Roast Beef, provolone cheese piled on Hearty Multigrain bread and topped with lettuce, tomatoes, red onions, and mayo</t>
-  </si>
-  <si>
     <t>#12 Turkey Cali Club</t>
   </si>
   <si>
@@ -174,6 +123,60 @@
   </si>
   <si>
     <t>#7 The Mexicali</t>
+  </si>
+  <si>
+    <t>Juicy meatballs drenched in marinara sauce with slices of pepperoni and BelGioioso® Fresh Mozzarella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juicy rotisserie-style chicken, crispy bacon, provolone, lettuce, tomatoes, red onions </t>
+  </si>
+  <si>
+    <t>Tender rotisserie-style chicken, melted Monterey cheddar cheese, hickory-smoked bacon, lettuce, tomatoes, red onions,</t>
+  </si>
+  <si>
+    <t>Juicy rotisserie-style chicken, smashed avocado, double Pepper Jack cheese, lettuce, tomatoes, and red onions</t>
+  </si>
+  <si>
+    <t>Roast beef, 2x provolone, lettuce, tomatoes, onions, and Roasted Garlic Aioli</t>
+  </si>
+  <si>
+    <t>Pepperoni, salami, turkey, ham and roast beef, 2x provolone, lettuce, tomatoes, onions, mayo, and MVP Vinaigrette</t>
+  </si>
+  <si>
+    <t>Steak, 2x American Cheese, Green Peppers, Red Onions, Toasted, and Mayo</t>
+  </si>
+  <si>
+    <t>Steak, 2x American Cheese, Green Peppers, Red Onions, Toasted, and Sweet Onion Teriyaki sauce</t>
+  </si>
+  <si>
+    <t>Steak, 2x pepperjack cheese, green peppers, red onions, baja chiptole sauce, Toasted</t>
+  </si>
+  <si>
+    <t>Steak, bacon, Monterey cheddar, green peppers and red onions piled high, Artisan Italian bread, creamy Peppercorn Ranch</t>
+  </si>
+  <si>
+    <t>Black Forest ham, Genoa salami, pepperoni, capicola on Italian bread with provolone cheese, lettuce, tomatoes, red onions, and banana peppers</t>
+  </si>
+  <si>
+    <t>Genoa salami, spicy pepperoni, jalapeno peppers, lettuce, tomato, red onions, provolone cheese, and MVP Parmesan Vinaigrette</t>
+  </si>
+  <si>
+    <t>Thin-sliced Black Forest ham, capicola, and BelGioioso® Fresh Mozzarella on Italian bread; with spinach, tomatoes, red onions, and banana peppers</t>
+  </si>
+  <si>
+    <t>Multigrain bread, grilled chicken strips marinated in Sweet Onion Teriyaki sauce, American cheese, lettuce, tomatoes, and red onions.</t>
+  </si>
+  <si>
+    <t>Tender hand-pulled rotisserie-style chicken, Monterey Cheddar, green peppers, and red onions</t>
+  </si>
+  <si>
+    <t>Oven-roasted turkey, Black Forest ham, Roast Beef, provolone cheese on Multigrain bread topped with lettuce, tomatoes, red onions, and mayo</t>
+  </si>
+  <si>
+    <t>Ham, provolone, lettuce, tomatoes, onions, and mayo</t>
+  </si>
+  <si>
+    <t>Turkey, provolone, lettuce, tomatoes, onions, and mayo</t>
   </si>
 </sst>
 </file>
@@ -568,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1C98EE-A01B-7547-A092-4344E54CDA46}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -590,23 +593,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="46.5">
+    <row r="2" spans="1:3" ht="31">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>6.39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="46.5">
+    <row r="3" spans="1:3" ht="31">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>6.79</v>
@@ -614,10 +617,10 @@
     </row>
     <row r="4" spans="1:3" ht="46.5">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
         <v>6.79</v>
@@ -625,10 +628,10 @@
     </row>
     <row r="5" spans="1:3" ht="62">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2">
         <v>7.89</v>
@@ -636,10 +639,10 @@
     </row>
     <row r="6" spans="1:3" ht="46.5">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
         <v>6.69</v>
@@ -647,10 +650,10 @@
     </row>
     <row r="7" spans="1:3" ht="46.5">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2">
         <v>6.69</v>
@@ -658,32 +661,32 @@
     </row>
     <row r="8" spans="1:3" ht="46.5">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2">
         <v>6.69</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="108.5">
+    <row r="9" spans="1:3" ht="62">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2">
         <v>7.19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="93">
+    <row r="10" spans="1:3" ht="77.5">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2">
         <v>6.19</v>
@@ -691,32 +694,32 @@
     </row>
     <row r="11" spans="1:3" ht="62">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>5.59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="93">
+    <row r="12" spans="1:3" ht="77.5">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2">
         <v>6.19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="93">
+    <row r="13" spans="1:3" ht="77.5">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
         <v>6.19</v>
@@ -724,10 +727,10 @@
     </row>
     <row r="14" spans="1:3" ht="62">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
         <v>5.99</v>
@@ -735,21 +738,21 @@
     </row>
     <row r="15" spans="1:3" ht="46.5">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
         <v>6.59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="93">
+    <row r="16" spans="1:3" ht="77.5">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2">
         <v>5.99</v>
@@ -757,21 +760,21 @@
     </row>
     <row r="17" spans="1:3" ht="31">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
         <v>6.59</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="62">
+    <row r="18" spans="1:3" ht="46.5">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2">
         <v>6.29</v>
@@ -779,10 +782,10 @@
     </row>
     <row r="19" spans="1:3" ht="62">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>6.69</v>
@@ -790,10 +793,10 @@
     </row>
     <row r="20" spans="1:3" ht="62">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
         <v>6.39</v>
@@ -801,21 +804,21 @@
     </row>
     <row r="21" spans="1:3" ht="62">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2">
         <v>5.99</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="93">
+    <row r="22" spans="1:3" ht="77.5">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2">
         <v>6.59</v>
@@ -823,10 +826,10 @@
     </row>
     <row r="23" spans="1:3" ht="77.5">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2">
         <v>10.39</v>

--- a/data/Subdata.xlsx
+++ b/data/Subdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\senio\Documents\Programming\Python Scripts\VSCode\AGE\Class\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a4/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D7E526-B513-466B-8DFF-D230D782AD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365AF1DE-7BD8-EA40-988E-287FEFA7A2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{1679E72E-8A18-944B-B572-A65605D2AF7D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1679E72E-8A18-944B-B572-A65605D2AF7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -104,9 +104,6 @@
     <t>#10 All-American Club</t>
   </si>
   <si>
-    <t>Oven-roasted turkey, Black Forest ham, crisp bacon, and American cheese with lettuce, tomatoes, red onions, and mayo</t>
-  </si>
-  <si>
     <t>#19 Pickleball Club</t>
   </si>
   <si>
@@ -116,74 +113,80 @@
     <t>#12 Turkey Cali Club</t>
   </si>
   <si>
-    <t>Oven-roasted turkey, crisp bacon, BelGioioso® Fresh Mozzarella, and smashed Hass avocado. Topped with spinach, tomatoes, red onions, and mayo</t>
-  </si>
-  <si>
     <t>#18 The Ultimate B.M.T</t>
   </si>
   <si>
     <t>#7 The Mexicali</t>
   </si>
   <si>
-    <t>Juicy meatballs drenched in marinara sauce with slices of pepperoni and BelGioioso® Fresh Mozzarella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juicy rotisserie-style chicken, crispy bacon, provolone, lettuce, tomatoes, red onions </t>
-  </si>
-  <si>
-    <t>Tender rotisserie-style chicken, melted Monterey cheddar cheese, hickory-smoked bacon, lettuce, tomatoes, red onions,</t>
-  </si>
-  <si>
-    <t>Juicy rotisserie-style chicken, smashed avocado, double Pepper Jack cheese, lettuce, tomatoes, and red onions</t>
-  </si>
-  <si>
-    <t>Roast beef, 2x provolone, lettuce, tomatoes, onions, and Roasted Garlic Aioli</t>
-  </si>
-  <si>
-    <t>Pepperoni, salami, turkey, ham and roast beef, 2x provolone, lettuce, tomatoes, onions, mayo, and MVP Vinaigrette</t>
-  </si>
-  <si>
-    <t>Steak, 2x American Cheese, Green Peppers, Red Onions, Toasted, and Mayo</t>
-  </si>
-  <si>
-    <t>Steak, 2x American Cheese, Green Peppers, Red Onions, Toasted, and Sweet Onion Teriyaki sauce</t>
-  </si>
-  <si>
-    <t>Steak, 2x pepperjack cheese, green peppers, red onions, baja chiptole sauce, Toasted</t>
-  </si>
-  <si>
-    <t>Steak, bacon, Monterey cheddar, green peppers and red onions piled high, Artisan Italian bread, creamy Peppercorn Ranch</t>
-  </si>
-  <si>
-    <t>Black Forest ham, Genoa salami, pepperoni, capicola on Italian bread with provolone cheese, lettuce, tomatoes, red onions, and banana peppers</t>
-  </si>
-  <si>
-    <t>Genoa salami, spicy pepperoni, jalapeno peppers, lettuce, tomato, red onions, provolone cheese, and MVP Parmesan Vinaigrette</t>
-  </si>
-  <si>
-    <t>Thin-sliced Black Forest ham, capicola, and BelGioioso® Fresh Mozzarella on Italian bread; with spinach, tomatoes, red onions, and banana peppers</t>
-  </si>
-  <si>
-    <t>Multigrain bread, grilled chicken strips marinated in Sweet Onion Teriyaki sauce, American cheese, lettuce, tomatoes, and red onions.</t>
-  </si>
-  <si>
-    <t>Tender hand-pulled rotisserie-style chicken, Monterey Cheddar, green peppers, and red onions</t>
-  </si>
-  <si>
-    <t>Oven-roasted turkey, Black Forest ham, Roast Beef, provolone cheese on Multigrain bread topped with lettuce, tomatoes, red onions, and mayo</t>
-  </si>
-  <si>
-    <t>Ham, provolone, lettuce, tomatoes, onions, and mayo</t>
-  </si>
-  <si>
-    <t>Turkey, provolone, lettuce, tomatoes, onions, and mayo</t>
+    <t>Ham, 2x Provolone, Lettuce, Tomatoes, Onions, and Mayo</t>
+  </si>
+  <si>
+    <t>Turkey, 2x Provolone, Lettuce, Tomatoes, Onions, and Mayo</t>
+  </si>
+  <si>
+    <t>Roast beef, 2x Provolone, Lettuce, Tomatoes, Onions, and Roasted Garlic Aioli</t>
+  </si>
+  <si>
+    <t>Pepperoni, Salami, Turkey, Ham, Roast Beef, 2x Provolone, Lettuce, Tomatoes, Onions, Mayo, and MVP Vinaigrette</t>
+  </si>
+  <si>
+    <t>Steak, 2x American, Green Peppers, Red Onions, Toasted, and Mayo</t>
+  </si>
+  <si>
+    <t>Steak, 2x American, Green Peppers, Red Onions, Toasted, and Sweet Onion Teriyaki sauce</t>
+  </si>
+  <si>
+    <t>Steak, 2x Pepperjack, Green Peppers, Red Onions, Baja Chipotle Sauce, Toasted</t>
+  </si>
+  <si>
+    <t>Steak, Bacon, 2x Monterey Cheddar, Green Peppers, Red Onions, Toasted Peppercorn Ranch, Toasted</t>
+  </si>
+  <si>
+    <t>Pepperoni, Salami, Ham, Capicola, 2x Provolone, Lettuce, Tomatoes, Red onions, and MVP Vinaigrette</t>
+  </si>
+  <si>
+    <t>pepperoni, Salami, 2x Provolone, Jalapeño Peppers, Lettuce, Tomatoes, Red Onions, MVP Parmesan Vinaigrette</t>
+  </si>
+  <si>
+    <t>Ham, Capicola, BelGioioso® Fresh Mozzarella, Spinach, Tomatoes, Red Onions, Banana peppers</t>
+  </si>
+  <si>
+    <t>Pepperoni, Meatballs, BelGioioso® Fresh Mozzarella, Parmesan, Toasted</t>
+  </si>
+  <si>
+    <t>Rotisserie-Style Chicken, Bacon, 2x Monterey cheddar, Toasted lettuce, Tomatoes, Red onions, Roasted Garlic Aioli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teriyaki Grilled Chicken, 2x American, Toasted, Lettuce, Spinach, Tomatoes, Cucumbers, Green Peppers, Red Onions, Sweet Onion Teriyaki </t>
+  </si>
+  <si>
+    <t>Rotisserie-Style Chicken, Bacon, 2x Monterey cheddar, Toasted Lettuce, Tomatoes, Red Onions, Peppercorn Ranch</t>
+  </si>
+  <si>
+    <t>Rotisserie-Style Chicken, Bacon, 2x Monterey cheddar, Green Peppers, Red Onions, Peppercorn Ranch, Toasted</t>
+  </si>
+  <si>
+    <t>Rotisserie-Style Chicken, 2x Pepper Jack, Lettuce, Tomatoes, Red Onions, Baja Chipotle</t>
+  </si>
+  <si>
+    <t>Turkey, Ham, Bacon, 2x American, Lettuce, Tomatoes, Red Onions, Mayo</t>
+  </si>
+  <si>
+    <t>Ham, Bacon, 2x American, Toasted, Lettuce, Tomatoes, Pickles, Red Onions, Honey Mustard</t>
+  </si>
+  <si>
+    <t>Ham, Roast Beef, 2x American, Lettuce, Tomatoes, Red Onions, Mayo</t>
+  </si>
+  <si>
+    <t>Turkey, Bacon, BelGioioso® Fresh Mozzarella, Toasted, Smashed Avocado, Spinach, Tomatoes, Red Onions, Mayo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,23 +201,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Scandia-bold"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Scandia-regular"/>
     </font>
   </fonts>
   <fills count="2">
@@ -237,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,13 +234,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,18 +550,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1C98EE-A01B-7547-A092-4344E54CDA46}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -593,108 +572,108 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
         <v>6.39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31">
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>6.79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="46.5">
+    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>6.79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="62">
+    <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2">
         <v>7.89</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="46.5">
+    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C6" s="2">
         <v>6.69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="46.5">
+    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
         <v>6.69</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="46.5">
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2">
         <v>6.69</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="62">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2">
-        <v>7.19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="77.5">
-      <c r="A10" s="5" t="s">
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
-        <v>6.19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="62">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -703,209 +682,209 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="77.5">
+    <row r="12" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
-        <v>6.19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="77.5">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2">
         <v>6.19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="62">
+    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2">
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="46.5">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
-        <v>6.59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="77.5">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="31">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>30</v>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>6.59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="46.5">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="2">
-        <v>6.29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="62">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" s="2">
-        <v>6.69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="62">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2">
-        <v>6.39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="62">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="2">
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="77.5">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="2">
-        <v>6.59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="77.5">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2">
-        <v>10.39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>

--- a/data/Subdata.xlsx
+++ b/data/Subdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a4/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365AF1DE-7BD8-EA40-988E-287FEFA7A2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB6697C-7F07-1640-87D6-C5AD57F45A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1679E72E-8A18-944B-B572-A65605D2AF7D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{1679E72E-8A18-944B-B572-A65605D2AF7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,15 +146,6 @@
     <t>Pepperoni, Salami, Ham, Capicola, 2x Provolone, Lettuce, Tomatoes, Red onions, and MVP Vinaigrette</t>
   </si>
   <si>
-    <t>pepperoni, Salami, 2x Provolone, Jalapeño Peppers, Lettuce, Tomatoes, Red Onions, MVP Parmesan Vinaigrette</t>
-  </si>
-  <si>
-    <t>Ham, Capicola, BelGioioso® Fresh Mozzarella, Spinach, Tomatoes, Red Onions, Banana peppers</t>
-  </si>
-  <si>
-    <t>Pepperoni, Meatballs, BelGioioso® Fresh Mozzarella, Parmesan, Toasted</t>
-  </si>
-  <si>
     <t>Rotisserie-Style Chicken, Bacon, 2x Monterey cheddar, Toasted lettuce, Tomatoes, Red onions, Roasted Garlic Aioli</t>
   </si>
   <si>
@@ -167,9 +158,6 @@
     <t>Rotisserie-Style Chicken, Bacon, 2x Monterey cheddar, Green Peppers, Red Onions, Peppercorn Ranch, Toasted</t>
   </si>
   <si>
-    <t>Rotisserie-Style Chicken, 2x Pepper Jack, Lettuce, Tomatoes, Red Onions, Baja Chipotle</t>
-  </si>
-  <si>
     <t>Turkey, Ham, Bacon, 2x American, Lettuce, Tomatoes, Red Onions, Mayo</t>
   </si>
   <si>
@@ -179,7 +167,19 @@
     <t>Ham, Roast Beef, 2x American, Lettuce, Tomatoes, Red Onions, Mayo</t>
   </si>
   <si>
-    <t>Turkey, Bacon, BelGioioso® Fresh Mozzarella, Toasted, Smashed Avocado, Spinach, Tomatoes, Red Onions, Mayo</t>
+    <t>Pepperoni, Meatballs, BelGioioso Fresh Mozzarella, Parmesan, Toasted</t>
+  </si>
+  <si>
+    <t>Ham, Capicola, BelGioioso Fresh Mozzarella, Spinach, Tomatoes, Red Onions, Banana peppers</t>
+  </si>
+  <si>
+    <t>Turkey, Bacon, BelGioioso Fresh Mozzarella, Toasted, Smashed Avocado, Spinach, Tomatoes, Red Onions, Mayo</t>
+  </si>
+  <si>
+    <t>Pepperoni, Salami, 2x Provolone, Jalapeño Peppers, Lettuce, Tomatoes, Red Onions, MVP Parmesan Vinaigrette</t>
+  </si>
+  <si>
+    <t>Rotisserie-Style Chicken, 2x PepperJack, Lettuce, Tomatoes, Red Onions, Baja Chipotle</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,7 +687,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2">
         <v>6.39</v>
@@ -698,7 +698,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2">
         <v>6.19</v>
@@ -709,7 +709,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2">
         <v>7.49</v>
@@ -720,7 +720,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2">
         <v>7.09</v>
@@ -731,7 +731,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2">
         <v>5.69</v>
@@ -742,7 +742,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2">
         <v>7.09</v>
@@ -753,7 +753,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2">
         <v>6.59</v>
@@ -764,7 +764,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2">
         <v>7.19</v>
@@ -775,7 +775,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
         <v>7.29</v>
@@ -786,7 +786,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2">
         <v>6.79</v>
@@ -797,7 +797,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2">
         <v>7.09</v>
@@ -808,7 +808,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2">
         <v>8.7899999999999991</v>
